--- a/BackTest/2020-01-25 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-25 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>546251.8355471219</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>507303.897047122</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>96.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>507303.897047122</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>96.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,13 +550,15 @@
         <v>496753.122947122</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96.20999999999999</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -599,9 +589,11 @@
         <v>463187.573747122</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>95.69</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -636,9 +628,11 @@
         <v>521833.3967471219</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>95.68000000000001</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -673,9 +667,11 @@
         <v>473919.3967471219</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>96.19</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -710,9 +706,11 @@
         <v>473919.3967471219</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>96</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -747,9 +745,11 @@
         <v>466697.1467471219</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>96</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>468304.7064471219</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>95.22</v>
@@ -823,7 +823,7 @@
         <v>470294.7064471219</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>95.23999999999999</v>
@@ -862,7 +862,7 @@
         <v>372218.8209471219</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>96</v>
@@ -901,7 +901,7 @@
         <v>357843.8209471219</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>95.31999999999999</v>
@@ -940,7 +940,7 @@
         <v>377644.1134471219</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>95.23</v>
@@ -979,7 +979,7 @@
         <v>377412.1134471219</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>96</v>
@@ -1018,7 +1018,7 @@
         <v>369949.5403471219</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>95.33</v>
@@ -1057,7 +1057,7 @@
         <v>374748.5403471219</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>94.98</v>
@@ -1096,7 +1096,7 @@
         <v>447045.3253471219</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>95.75</v>
@@ -1135,9 +1135,11 @@
         <v>437530.1790471219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>95.81</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1172,9 +1174,11 @@
         <v>387199.1652471219</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>95.56999999999999</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1209,9 +1213,11 @@
         <v>373625.1582471219</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>95.47</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1246,9 +1252,11 @@
         <v>417297.4003471219</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>94.81</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1283,9 +1291,11 @@
         <v>417766.8988471219</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>94.93000000000001</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1320,9 +1330,11 @@
         <v>419237.9534471218</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>95.75</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1357,9 +1369,11 @@
         <v>406969.5093471218</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>95.84</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1394,7 +1408,7 @@
         <v>421200.8907471218</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>95.81999999999999</v>
@@ -1433,7 +1447,7 @@
         <v>421200.8907471218</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>95.83</v>
@@ -1472,7 +1486,7 @@
         <v>487202.5970471218</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>95.83</v>
@@ -1511,9 +1525,11 @@
         <v>486191.3986471219</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>96.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1548,7 +1564,7 @@
         <v>486159.3986471219</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>96.14</v>
@@ -1587,7 +1603,7 @@
         <v>486159.3987471219</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>95.55</v>
@@ -1626,7 +1642,7 @@
         <v>490072.4506471219</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>96.3</v>
@@ -1665,11 +1681,9 @@
         <v>495042.8257471219</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>96.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1704,11 +1718,9 @@
         <v>507935.3102471219</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>97.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2187,7 +2199,7 @@
         <v>1314354.453845423</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2224,7 +2236,7 @@
         <v>1364864.607445423</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2298,7 +2310,7 @@
         <v>1275687.937245423</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2409,7 +2421,7 @@
         <v>1259128.833345423</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2446,7 +2458,7 @@
         <v>1265439.185945423</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2483,7 +2495,7 @@
         <v>1265439.185945423</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2520,7 +2532,7 @@
         <v>1171226.696445423</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2816,7 +2828,7 @@
         <v>1177022.604345423</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2853,7 +2865,7 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2890,7 +2902,7 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2927,7 +2939,7 @@
         <v>1253697.071545423</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2964,7 +2976,7 @@
         <v>1254999.521345423</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3001,7 +3013,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3038,7 +3050,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3075,7 +3087,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3112,7 +3124,7 @@
         <v>1259293.108645423</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3149,7 +3161,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3186,7 +3198,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3556,7 +3568,7 @@
         <v>1248266.977145423</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3630,7 +3642,7 @@
         <v>1241991.687745423</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3778,18 +3790,16 @@
         <v>1225905.168345423</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3815,15 +3825,11 @@
         <v>1212554.569345423</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3852,15 +3858,11 @@
         <v>1225875.542045423</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3889,15 +3891,11 @@
         <v>1216185.542045423</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3926,15 +3924,11 @@
         <v>1253547.774945423</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3963,15 +3957,11 @@
         <v>1259015.101345423</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4000,15 +3990,11 @@
         <v>1262585.065245423</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4037,15 +4023,11 @@
         <v>1272924.373245423</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +4060,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +4093,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +4126,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +4159,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +4192,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4263,11 +4225,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +4258,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4291,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +4324,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4357,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4390,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4485,11 +4423,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4456,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4489,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4522,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4555,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +4588,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4707,11 +4621,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4654,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +4687,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4720,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4753,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +4786,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +4819,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4966,11 +4852,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5003,11 +4885,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5036,16 +4914,14 @@
         <v>1282299.539445423</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -5071,7 +4947,7 @@
         <v>1281416.004645423</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5104,7 +4980,7 @@
         <v>1237657.691445423</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5137,7 +5013,7 @@
         <v>1271341.303745423</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5170,7 +5046,7 @@
         <v>1346166.048645423</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5203,7 +5079,7 @@
         <v>1317694.467045423</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5236,7 +5112,7 @@
         <v>1322596.064045423</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5269,7 +5145,7 @@
         <v>1277598.798601054</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5302,7 +5178,7 @@
         <v>1278332.516701054</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5335,7 +5211,7 @@
         <v>1278432.516701054</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5368,7 +5244,7 @@
         <v>1278407.517001054</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5401,7 +5277,7 @@
         <v>1287079.699001054</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5434,7 +5310,7 @@
         <v>1219940.759301054</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5467,7 +5343,7 @@
         <v>1247255.759301054</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5500,7 +5376,7 @@
         <v>1235245.759401054</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5533,7 +5409,7 @@
         <v>1243566.095501054</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5566,7 +5442,7 @@
         <v>1205544.532901054</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5599,7 +5475,7 @@
         <v>1205544.532901054</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5632,7 +5508,7 @@
         <v>1167090.494001054</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5665,7 +5541,7 @@
         <v>1167090.494001054</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5698,7 +5574,7 @@
         <v>1157120.666501054</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5731,7 +5607,7 @@
         <v>1161095.493301054</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5764,7 +5640,7 @@
         <v>1161105.278036866</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5797,7 +5673,7 @@
         <v>1160908.814382642</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5830,7 +5706,7 @@
         <v>1160903.814482642</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5863,7 +5739,7 @@
         <v>1182360.335082642</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5896,7 +5772,7 @@
         <v>1172812.335082642</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5929,7 +5805,7 @@
         <v>1176134.252982642</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5962,7 +5838,7 @@
         <v>1156714.994982642</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5995,7 +5871,7 @@
         <v>1156714.994982642</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6028,7 +5904,7 @@
         <v>1143275.156782642</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6061,7 +5937,7 @@
         <v>1162278.177782642</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6094,7 +5970,7 @@
         <v>1180574.952382642</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6127,7 +6003,7 @@
         <v>1185746.341482642</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6160,7 +6036,7 @@
         <v>1185746.341482642</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6193,7 +6069,7 @@
         <v>1224600.959982642</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6226,7 +6102,7 @@
         <v>1224600.959982642</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6259,7 +6135,7 @@
         <v>1212610.959982642</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6292,7 +6168,7 @@
         <v>1210720.959982642</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6457,7 +6333,7 @@
         <v>1190151.454982642</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6655,7 +6531,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6688,7 +6564,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6721,7 +6597,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6754,7 +6630,7 @@
         <v>1150906.000882642</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6787,7 +6663,7 @@
         <v>1205813.687782642</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7282,7 +7158,7 @@
         <v>1181117.193482642</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -8041,7 +7917,7 @@
         <v>1117073.134958295</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8107,7 +7983,7 @@
         <v>1112113.787658295</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8140,7 +8016,7 @@
         <v>1115413.787658295</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8305,7 +8181,7 @@
         <v>1148141.110259434</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8338,7 +8214,7 @@
         <v>1135613.096659434</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8371,7 +8247,7 @@
         <v>1161923.830159434</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8404,7 +8280,7 @@
         <v>1147946.830159434</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8437,7 +8313,7 @@
         <v>1151410.620259434</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8470,7 +8346,7 @@
         <v>1155769.636812501</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8569,7 +8445,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8602,7 +8478,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8635,7 +8511,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8668,7 +8544,7 @@
         <v>1093710.536675959</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8734,7 +8610,7 @@
         <v>1062113.970375959</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9196,7 +9072,7 @@
         <v>1100800.378307455</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9229,7 +9105,7 @@
         <v>1100393.156207455</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9790,7 +9666,7 @@
         <v>1022203.222607455</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9856,7 +9732,7 @@
         <v>1029903.222607455</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9889,7 +9765,7 @@
         <v>1034546.943707455</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9922,7 +9798,7 @@
         <v>1034611.181307455</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9955,7 +9831,7 @@
         <v>1034611.181307455</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9988,7 +9864,7 @@
         <v>1034611.181307455</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10087,7 +9963,7 @@
         <v>1038111.181307455</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10120,7 +9996,7 @@
         <v>1099828.766642345</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10153,7 +10029,7 @@
         <v>1090687.851742345</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10186,7 +10062,7 @@
         <v>1168383.541942345</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10219,7 +10095,7 @@
         <v>1333651.338184583</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10252,7 +10128,7 @@
         <v>1330210.278184583</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10285,7 +10161,7 @@
         <v>1351549.666384583</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10318,7 +10194,7 @@
         <v>1205498.79047168</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10351,7 +10227,7 @@
         <v>1193911.87867168</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10384,7 +10260,7 @@
         <v>1204144.56757168</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10417,7 +10293,7 @@
         <v>1222714.81886244</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10450,7 +10326,7 @@
         <v>1202521.48436244</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10483,7 +10359,7 @@
         <v>1172341.41726244</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10516,7 +10392,7 @@
         <v>1148669.94416244</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10549,7 +10425,7 @@
         <v>1161761.98076244</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10582,7 +10458,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10615,7 +10491,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10648,7 +10524,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10681,7 +10557,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10714,7 +10590,7 @@
         <v>1176109.04176244</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10747,7 +10623,7 @@
         <v>1196099.04176244</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10780,7 +10656,7 @@
         <v>1190352.13426244</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10813,7 +10689,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10846,7 +10722,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10879,7 +10755,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10912,7 +10788,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10945,7 +10821,7 @@
         <v>1175915.89196244</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10978,7 +10854,7 @@
         <v>1151008.99666244</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11011,7 +10887,7 @@
         <v>1163018.99666244</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11044,7 +10920,7 @@
         <v>1156375.51916244</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11077,7 +10953,7 @@
         <v>1154544.51916244</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11110,7 +10986,7 @@
         <v>1154807.86426244</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11143,7 +11019,7 @@
         <v>1136777.483142927</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11176,7 +11052,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11209,7 +11085,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11242,7 +11118,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11308,7 +11184,7 @@
         <v>1040410.641542927</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11341,7 +11217,7 @@
         <v>1049590.488142927</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11440,7 +11316,7 @@
         <v>1045565.852542927</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11473,7 +11349,7 @@
         <v>1058829.057742927</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11506,7 +11382,7 @@
         <v>1065442.075842927</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11539,7 +11415,7 @@
         <v>1066262.998942927</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11572,7 +11448,7 @@
         <v>1016186.459942927</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11605,7 +11481,7 @@
         <v>1013578.392242927</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11638,7 +11514,7 @@
         <v>1013578.392242927</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11671,7 +11547,7 @@
         <v>1019293.154147689</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11704,7 +11580,7 @@
         <v>960072.8649581054</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11737,7 +11613,7 @@
         <v>950195.4433581054</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11770,7 +11646,7 @@
         <v>907161.1742581053</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11803,7 +11679,7 @@
         <v>900156.1742581053</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11836,7 +11712,7 @@
         <v>886799.6066581054</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11869,7 +11745,7 @@
         <v>864969.3349581053</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11902,7 +11778,7 @@
         <v>891660.4987581053</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11935,7 +11811,7 @@
         <v>891660.4987581053</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11968,7 +11844,7 @@
         <v>894925.0367581053</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12001,7 +11877,7 @@
         <v>900045.0367581053</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12067,7 +11943,7 @@
         <v>893040.7914816347</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12100,7 +11976,7 @@
         <v>895681.6580816347</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12133,7 +12009,7 @@
         <v>872416.9263816347</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12166,7 +12042,7 @@
         <v>869229.0018816347</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12199,7 +12075,7 @@
         <v>870567.0018816347</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12232,7 +12108,7 @@
         <v>847203.7526816347</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12265,7 +12141,7 @@
         <v>847203.7526816347</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12298,7 +12174,7 @@
         <v>835742.3048816348</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12331,7 +12207,7 @@
         <v>835742.3048816348</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12364,7 +12240,7 @@
         <v>805523.2267816347</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12397,7 +12273,7 @@
         <v>805523.2267816347</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12430,7 +12306,7 @@
         <v>805553.2267816347</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12463,7 +12339,7 @@
         <v>750987.6214816347</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12496,7 +12372,7 @@
         <v>751087.6214816347</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12529,7 +12405,7 @@
         <v>746814.7355816347</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12562,7 +12438,7 @@
         <v>746814.7355816347</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12595,7 +12471,7 @@
         <v>746814.7355816347</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12628,7 +12504,7 @@
         <v>835546.6746816346</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12661,7 +12537,7 @@
         <v>835377.4046816346</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12694,7 +12570,7 @@
         <v>938803.8123816346</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12727,7 +12603,7 @@
         <v>800573.4296969055</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13156,7 +13032,7 @@
         <v>576234.3618699289</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -15103,10 +14979,14 @@
         <v>398596.7915699288</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="J430" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
@@ -15136,11 +15016,19 @@
         <v>398596.7915699288</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="J431" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15057,19 @@
         <v>396861.2831699288</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="J432" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15098,19 @@
         <v>387373.1905699288</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="J433" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15334,15 +15256,15 @@
         <v>316694.2965699288</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>97.81</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L437" t="n">
@@ -15373,12 +15295,14 @@
         <v>341277.6595699288</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>97.72</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,12 +15336,14 @@
         <v>344787.6595699288</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>98.2</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,12 +15377,14 @@
         <v>344787.6595699288</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>98.59</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,12 +15418,12 @@
         <v>347170.7462699288</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>98.59</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,12 +15457,12 @@
         <v>347170.7462699288</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15571,7 +15499,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15605,12 +15535,12 @@
         <v>345887.0836699288</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>98.59</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,7 +15577,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15684,7 +15616,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,7 +15655,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,7 +15694,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,7 +15733,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,7 +15772,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,7 +15811,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,7 +15850,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15943,7 +15889,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15980,7 +15928,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16017,7 +15967,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,7 +16006,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16091,7 +16045,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16125,12 +16081,12 @@
         <v>433717.9044699288</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16167,7 +16123,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16204,7 +16162,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16241,7 +16201,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16275,12 +16237,12 @@
         <v>388759.1642699289</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>98.55</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16317,7 +16279,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,7 +16318,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16391,7 +16357,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16425,12 +16393,12 @@
         <v>365588.9494699288</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>98.93000000000001</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16467,7 +16435,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,7 +16474,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16541,7 +16513,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16578,7 +16552,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16615,7 +16591,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16652,7 +16630,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,7 +16669,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16726,7 +16708,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16763,7 +16747,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16800,7 +16786,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16837,7 +16825,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16874,7 +16864,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16908,12 +16900,12 @@
         <v>372408.0379699288</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16947,12 +16939,12 @@
         <v>393662.4839699288</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>98.75</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16986,12 +16978,12 @@
         <v>388281.3475699288</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>99.25</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17028,7 +17020,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17062,12 +17056,12 @@
         <v>374244.4746763805</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J483" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17101,12 +17095,12 @@
         <v>375244.4746763805</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>98.34999999999999</v>
-      </c>
-      <c r="J484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17140,12 +17134,12 @@
         <v>334821.4243763805</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>98.53</v>
-      </c>
-      <c r="J485" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17179,12 +17173,12 @@
         <v>288942.9453763805</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
         <v>98.34</v>
       </c>
-      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17218,12 +17212,14 @@
         <v>292674.9172763805</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17257,12 +17253,14 @@
         <v>299814.5324763805</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>97.5</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17296,12 +17294,12 @@
         <v>326858.6011763805</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="J489" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17335,12 +17333,14 @@
         <v>321874.8667763805</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>97.89</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17374,12 +17374,14 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>97.5</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17413,12 +17415,14 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17452,12 +17456,12 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,12 +17495,14 @@
         <v>272815.2566763805</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17530,12 +17536,12 @@
         <v>273323.3665763804</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="J495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17569,12 +17575,14 @@
         <v>255109.6015763804</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17611,7 +17619,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,12 +17655,12 @@
         <v>69284.77707638044</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="J498" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17687,7 +17697,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17721,12 +17733,12 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="J500" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17760,12 +17772,12 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17799,12 +17811,12 @@
         <v>86868.08017638043</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J502" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,12 +17850,12 @@
         <v>90505.20967638043</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>97.13</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17877,12 +17889,14 @@
         <v>90994.71927638043</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>97.14</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17916,12 +17930,14 @@
         <v>86260.17157638044</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>97.17</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17955,12 +17971,14 @@
         <v>90533.10087638044</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>96.51000000000001</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17994,12 +18012,14 @@
         <v>116842.2061763804</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>96.61</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18033,12 +18053,14 @@
         <v>93299.54307638043</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>96.8</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,12 +18094,14 @@
         <v>129235.3704763804</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18111,12 +18135,14 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>96.31</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18150,12 +18176,14 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18189,12 +18217,14 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18228,12 +18258,14 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18267,12 +18299,14 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18306,12 +18340,14 @@
         <v>98782.30477638044</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,12 +18381,14 @@
         <v>72001.82627638044</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>95.88</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18384,12 +18422,14 @@
         <v>46175.20857638044</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18423,12 +18463,14 @@
         <v>46175.20857638044</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>95.31</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,12 +18504,14 @@
         <v>46536.90407638044</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>95.31</v>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,12 +18545,14 @@
         <v>46536.90407638044</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>95.8</v>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18540,12 +18586,14 @@
         <v>46536.90407638044</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>95.8</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18579,12 +18627,14 @@
         <v>46536.90407638044</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>95.8</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18618,12 +18668,14 @@
         <v>52537.66067638044</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>95.8</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,12 +18709,14 @@
         <v>52531.42487638044</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>96.5</v>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,12 +18750,14 @@
         <v>52636.99897638043</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>96.22</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18735,12 +18791,14 @@
         <v>51735.99907638043</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>96.89</v>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18774,10 +18832,14 @@
         <v>51735.99907638043</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>96.63</v>
+      </c>
+      <c r="J527" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18811,12 +18873,14 @@
         <v>106215.6862763804</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>96.63</v>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18853,7 +18917,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18890,7 +18956,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18927,7 +18995,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,12 +19031,14 @@
         <v>99520.60507638045</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>96.51000000000001</v>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,12 +19072,14 @@
         <v>99525.80507638045</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>96.25</v>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,10 +19113,14 @@
         <v>117967.2762763804</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="J534" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19076,12 +19154,12 @@
         <v>119695.3200763804</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>97.17</v>
-      </c>
-      <c r="J535" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19115,12 +19193,12 @@
         <v>120062.0568763804</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>97.41</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19154,12 +19232,12 @@
         <v>120104.5142763804</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,12 +19271,12 @@
         <v>120204.5142763804</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>97.59</v>
-      </c>
-      <c r="J538" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19232,12 +19310,12 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>97.66</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19271,12 +19349,12 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19310,12 +19388,12 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19349,12 +19427,12 @@
         <v>130779.2281763804</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19388,12 +19466,12 @@
         <v>145279.2281763804</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19427,12 +19505,12 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J544" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19466,12 +19544,12 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19505,12 +19583,12 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19544,12 +19622,12 @@
         <v>173803.2821763805</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19583,12 +19661,12 @@
         <v>193435.3871763805</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>98.52</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19625,7 +19703,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19662,7 +19742,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19699,7 +19781,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19736,7 +19820,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19773,7 +19859,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19810,7 +19898,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19847,7 +19937,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19884,7 +19976,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19921,7 +20015,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19958,7 +20054,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19995,7 +20093,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20029,10 +20129,14 @@
         <v>289194.4163371525</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20066,10 +20170,14 @@
         <v>290215.2026373515</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>99.12</v>
+      </c>
+      <c r="J561" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20103,12 +20211,14 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>100.5</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20142,10 +20252,14 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="J563" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20179,10 +20293,14 @@
         <v>285272.2378372516</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="J564" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20216,10 +20334,14 @@
         <v>252805.2714372516</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J565" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20253,10 +20375,14 @@
         <v>345693.4456372516</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J566" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20290,10 +20416,14 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J567" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20327,10 +20457,14 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J568" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20364,10 +20498,14 @@
         <v>404829.8391372516</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J569" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20401,10 +20539,14 @@
         <v>504443.8730372516</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J570" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20438,10 +20580,14 @@
         <v>484034.8790372516</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>101</v>
+      </c>
+      <c r="J571" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20475,10 +20621,14 @@
         <v>494995.7471372516</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J572" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20512,10 +20662,14 @@
         <v>469873.5745372516</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>101</v>
+      </c>
+      <c r="J573" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20549,10 +20703,14 @@
         <v>475529.1926372516</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J574" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20586,10 +20744,14 @@
         <v>478573.1238372516</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>101</v>
+      </c>
+      <c r="J575" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20626,7 +20788,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20663,7 +20827,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20700,7 +20866,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20737,7 +20905,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20774,7 +20944,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20811,7 +20983,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20848,7 +21022,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20885,7 +21061,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20922,7 +21100,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20959,7 +21139,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20996,7 +21178,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21033,7 +21217,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21070,7 +21256,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21107,7 +21295,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21144,7 +21334,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21178,16 +21370,20 @@
         <v>395613.1010953779</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>98.34</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L591" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
       <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
@@ -21213,11 +21409,17 @@
         <v>395613.1010953779</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21246,11 +21448,17 @@
         <v>476829.6051953779</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21279,11 +21487,17 @@
         <v>459629.6744953779</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21312,11 +21526,17 @@
         <v>474722.4926953778</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21345,11 +21565,17 @@
         <v>479341.6962953779</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21378,11 +21604,17 @@
         <v>479341.6962953779</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21414,8 +21646,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21447,8 +21685,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21480,8 +21724,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21513,8 +21763,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21546,8 +21802,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21579,8 +21841,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21612,8 +21880,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21645,8 +21919,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21678,8 +21958,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21711,8 +21997,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21744,8 +22036,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21777,8 +22075,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21810,8 +22114,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21843,8 +22153,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21876,8 +22192,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21909,8 +22231,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21942,8 +22270,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21975,8 +22309,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22008,8 +22348,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22041,8 +22387,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22074,8 +22426,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22107,8 +22465,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22140,8 +22504,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22173,8 +22543,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22206,8 +22582,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22239,8 +22621,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22272,8 +22660,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22302,11 +22696,17 @@
         <v>212045.9565963679</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22335,11 +22735,17 @@
         <v>217264.3738963679</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22371,8 +22777,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22404,8 +22816,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22437,8 +22855,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22470,8 +22894,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22503,8 +22933,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22536,8 +22972,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22569,8 +23011,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22602,8 +23050,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22635,8 +23089,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22668,8 +23128,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22701,8 +23167,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22734,8 +23206,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22767,8 +23245,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22800,8 +23284,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22833,8 +23323,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22866,8 +23362,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22899,8 +23401,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22932,8 +23440,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22965,8 +23479,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22998,8 +23518,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23031,8 +23557,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23064,8 +23596,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23097,8 +23635,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23130,8 +23674,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23163,8 +23713,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23196,8 +23752,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23229,8 +23791,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23262,8 +23830,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23295,8 +23869,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23328,8 +23908,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23361,8 +23947,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23394,8 +23986,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23427,8 +24025,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23460,8 +24064,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23493,8 +24103,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23526,8 +24142,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23559,8 +24181,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23592,8 +24220,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23625,8 +24259,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23658,8 +24298,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23691,8 +24337,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23724,8 +24376,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23757,8 +24415,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23790,8 +24454,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23823,8 +24493,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23856,8 +24532,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23889,8 +24571,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23922,8 +24610,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23955,8 +24649,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23988,8 +24688,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24021,8 +24727,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24054,8 +24766,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24087,8 +24805,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24120,8 +24844,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24153,8 +24883,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24186,8 +24922,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24219,8 +24961,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24252,8 +25000,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24285,8 +25039,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24318,8 +25078,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24351,8 +25117,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24384,8 +25156,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24417,8 +25195,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24450,8 +25234,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24480,11 +25270,17 @@
         <v>599464.7897009068</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24513,11 +25309,17 @@
         <v>558299.590162156</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24546,11 +25348,17 @@
         <v>558299.590162156</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24579,11 +25387,17 @@
         <v>550248.149062156</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24612,11 +25426,17 @@
         <v>735694.3980106409</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24645,11 +25465,17 @@
         <v>830519.8446587088</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24678,11 +25504,17 @@
         <v>808327.6128587088</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24711,11 +25543,17 @@
         <v>851185.3923587088</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24744,11 +25582,17 @@
         <v>589852.7535587088</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24777,11 +25621,17 @@
         <v>515833.2713587089</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24810,11 +25660,17 @@
         <v>557993.0532587089</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24843,11 +25699,17 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24876,11 +25738,17 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24909,11 +25777,17 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24942,11 +25816,17 @@
         <v>495958.2323587089</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24975,11 +25855,17 @@
         <v>465685.9616587089</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25011,8 +25897,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25044,8 +25936,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25074,15 +25972,23 @@
         <v>399397.2212587089</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
+        <v>1.055606060606061</v>
+      </c>
+      <c r="M709" t="n">
+        <v>1.150862068965517</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -25107,7 +26013,7 @@
         <v>423204.5465587089</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25173,7 +26079,7 @@
         <v>382064.4081587089</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25239,7 +26145,7 @@
         <v>372017.816358709</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25305,7 +26211,7 @@
         <v>370297.4192103868</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25404,7 +26310,7 @@
         <v>321169.8579103868</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25437,7 +26343,7 @@
         <v>321728.5320103868</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25470,7 +26376,7 @@
         <v>308967.2494103868</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25503,7 +26409,7 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25536,7 +26442,7 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25569,7 +26475,7 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25602,7 +26508,7 @@
         <v>290031.3919103869</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25635,7 +26541,7 @@
         <v>319846.4455103868</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25668,7 +26574,7 @@
         <v>319407.2996103868</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25767,7 +26673,7 @@
         <v>325081.4479103868</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25800,7 +26706,7 @@
         <v>324531.4479103868</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25833,7 +26739,7 @@
         <v>265922.0683103869</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25866,7 +26772,7 @@
         <v>265922.0683103869</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25899,7 +26805,7 @@
         <v>301244.1011103868</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25932,7 +26838,7 @@
         <v>291243.8619103868</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25965,7 +26871,7 @@
         <v>301809.1453103868</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25998,7 +26904,7 @@
         <v>297811.0621103868</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26031,7 +26937,7 @@
         <v>313440.0015103868</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26064,7 +26970,7 @@
         <v>306971.4818103868</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26097,7 +27003,7 @@
         <v>292011.2076103868</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26130,7 +27036,7 @@
         <v>293111.2076103868</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26163,7 +27069,7 @@
         <v>287559.7910103868</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26196,7 +27102,7 @@
         <v>283561.7078103868</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26229,7 +27135,7 @@
         <v>283561.7078103868</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26262,7 +27168,7 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26295,7 +27201,7 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26328,7 +27234,7 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26361,7 +27267,7 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -30882,10 +31788,14 @@
         <v>-217.6754760634667</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J885" t="n">
+        <v>100.2</v>
+      </c>
       <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
@@ -30915,11 +31825,19 @@
         <v>-3717.675476063467</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J886" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30951,8 +31869,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30981,11 +31905,19 @@
         <v>-4717.675476063467</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J888" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31014,11 +31946,19 @@
         <v>-23973.68667606347</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J889" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31050,8 +31990,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31083,8 +32029,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31116,8 +32068,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31149,8 +32107,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31179,11 +32143,19 @@
         <v>2313.539480629446</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J894" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31212,11 +32184,19 @@
         <v>-2687.460519370554</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J895" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31245,11 +32225,19 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J896" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31278,11 +32266,19 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>100</v>
+      </c>
+      <c r="J897" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31311,11 +32307,19 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>100</v>
+      </c>
+      <c r="J898" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31344,11 +32348,19 @@
         <v>-91798.27911937055</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>100</v>
+      </c>
+      <c r="J899" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31377,11 +32389,19 @@
         <v>-181176.6911193705</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J900" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31410,11 +32430,19 @@
         <v>-142825.3118193705</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="J901" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31443,11 +32471,19 @@
         <v>-171052.3809193705</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>100</v>
+      </c>
+      <c r="J902" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31476,11 +32512,19 @@
         <v>-159322.3809193705</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>99.42</v>
+      </c>
+      <c r="J903" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31509,11 +32553,19 @@
         <v>-165098.1802193706</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>100</v>
+      </c>
+      <c r="J904" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31542,11 +32594,19 @@
         <v>-164218.5789193705</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="J905" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31575,17 +32635,25 @@
         <v>-150398.5789193705</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J906" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
       <c r="M906" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-25 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,17 +550,11 @@
         <v>496753.122947122</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -589,17 +583,11 @@
         <v>463187.573747122</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>95.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,17 +616,11 @@
         <v>521833.3967471219</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>95.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,17 +649,11 @@
         <v>473919.3967471219</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>96.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +682,11 @@
         <v>473919.3967471219</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,17 +715,11 @@
         <v>466697.1467471219</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,17 +748,11 @@
         <v>468304.7064471219</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>95.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,17 +781,11 @@
         <v>470294.7064471219</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>95.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,17 +814,11 @@
         <v>372218.8209471219</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,17 +847,11 @@
         <v>357843.8209471219</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,17 +880,11 @@
         <v>377644.1134471219</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>95.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,17 +913,11 @@
         <v>377412.1134471219</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,17 +946,11 @@
         <v>369949.5403471219</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>95.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1057,17 +979,11 @@
         <v>374748.5403471219</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>94.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,17 +1012,11 @@
         <v>447045.3253471219</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>95.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1135,17 +1045,11 @@
         <v>437530.1790471219</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>95.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1174,17 +1078,11 @@
         <v>387199.1652471219</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>95.56999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,17 +1111,11 @@
         <v>373625.1582471219</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>95.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1252,17 +1144,11 @@
         <v>417297.4003471219</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>94.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1291,17 +1177,11 @@
         <v>417766.8988471219</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>94.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1330,17 +1210,11 @@
         <v>419237.9534471218</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>95.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1369,17 +1243,11 @@
         <v>406969.5093471218</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>95.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1408,17 +1276,11 @@
         <v>421200.8907471218</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>95.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1447,17 +1309,11 @@
         <v>421200.8907471218</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>95.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1486,17 +1342,11 @@
         <v>487202.5970471218</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>95.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1525,17 +1375,11 @@
         <v>486191.3986471219</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>96.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1564,17 +1408,11 @@
         <v>486159.3986471219</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>96.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1603,17 +1441,11 @@
         <v>486159.3987471219</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>95.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1642,17 +1474,11 @@
         <v>490072.4506471219</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>96.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1685,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1722,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1759,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1796,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1833,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1907,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2092,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2129,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2203,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2240,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2277,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2310,15 +2068,11 @@
         <v>1275687.937245423</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2351,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2388,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2462,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2499,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2532,15 +2266,11 @@
         <v>1171226.696445423</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2610,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2684,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2758,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2832,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2902,15 +2596,11 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2939,15 +2629,11 @@
         <v>1253697.071545423</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2976,15 +2662,11 @@
         <v>1254999.521345423</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3013,15 +2695,11 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3050,15 +2728,11 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3087,15 +2761,11 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3124,15 +2794,11 @@
         <v>1259293.108645423</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3161,15 +2827,11 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3198,15 +2860,11 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3235,15 +2893,11 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3272,15 +2926,11 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3309,15 +2959,11 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3346,15 +2992,11 @@
         <v>1264953.827245423</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3535,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3572,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3609,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3683,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3720,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3757,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3790,16 +3388,14 @@
         <v>1225905.168345423</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3825,7 +3421,7 @@
         <v>1212554.569345423</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3858,7 +3454,7 @@
         <v>1225875.542045423</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3891,7 +3487,7 @@
         <v>1216185.542045423</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3924,7 +3520,7 @@
         <v>1253547.774945423</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3957,7 +3553,7 @@
         <v>1259015.101345423</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3990,7 +3586,7 @@
         <v>1262585.065245423</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4023,7 +3619,7 @@
         <v>1272924.373245423</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5343,7 +4939,7 @@
         <v>1247255.759301054</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5409,7 +5005,7 @@
         <v>1243566.095501054</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5442,7 +5038,7 @@
         <v>1205544.532901054</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5475,7 +5071,7 @@
         <v>1205544.532901054</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5508,7 +5104,7 @@
         <v>1167090.494001054</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5541,7 +5137,7 @@
         <v>1167090.494001054</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5574,7 +5170,7 @@
         <v>1157120.666501054</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5607,7 +5203,7 @@
         <v>1161095.493301054</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5640,7 +5236,7 @@
         <v>1161105.278036866</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5673,7 +5269,7 @@
         <v>1160908.814382642</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5706,7 +5302,7 @@
         <v>1160903.814482642</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5739,7 +5335,7 @@
         <v>1182360.335082642</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5772,7 +5368,7 @@
         <v>1172812.335082642</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5805,7 +5401,7 @@
         <v>1176134.252982642</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5838,7 +5434,7 @@
         <v>1156714.994982642</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5871,7 +5467,7 @@
         <v>1156714.994982642</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5904,7 +5500,7 @@
         <v>1143275.156782642</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5937,7 +5533,7 @@
         <v>1162278.177782642</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5970,7 +5566,7 @@
         <v>1180574.952382642</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6003,7 +5599,7 @@
         <v>1185746.341482642</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6036,7 +5632,7 @@
         <v>1185746.341482642</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6069,7 +5665,7 @@
         <v>1224600.959982642</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6102,7 +5698,7 @@
         <v>1224600.959982642</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6135,7 +5731,7 @@
         <v>1212610.959982642</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6168,7 +5764,7 @@
         <v>1210720.959982642</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6531,7 +6127,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6564,7 +6160,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6597,7 +6193,7 @@
         <v>1159362.609282642</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6630,7 +6226,7 @@
         <v>1150906.000882642</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6663,7 +6259,7 @@
         <v>1205813.687782642</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7983,7 +7579,7 @@
         <v>1112113.787658295</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8016,7 +7612,7 @@
         <v>1115413.787658295</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8247,7 +7843,7 @@
         <v>1161923.830159434</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8280,7 +7876,7 @@
         <v>1147946.830159434</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8313,7 +7909,7 @@
         <v>1151410.620259434</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8346,7 +7942,7 @@
         <v>1155769.636812501</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8445,7 +8041,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8478,7 +8074,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8511,7 +8107,7 @@
         <v>1126617.302975959</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8544,7 +8140,7 @@
         <v>1093710.536675959</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8577,7 +8173,7 @@
         <v>1106470.536675959</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8610,7 +8206,7 @@
         <v>1062113.970375959</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8676,7 +8272,7 @@
         <v>1042236.726975959</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8709,7 +8305,7 @@
         <v>1002364.729375959</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9072,7 +8668,7 @@
         <v>1100800.378307455</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9105,7 +8701,7 @@
         <v>1100393.156207455</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9963,7 +9559,7 @@
         <v>1038111.181307455</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10029,7 +9625,7 @@
         <v>1090687.851742345</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10062,7 +9658,7 @@
         <v>1168383.541942345</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10128,7 +9724,7 @@
         <v>1330210.278184583</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10161,7 +9757,7 @@
         <v>1351549.666384583</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10194,7 +9790,7 @@
         <v>1205498.79047168</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10293,7 +9889,7 @@
         <v>1222714.81886244</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10359,7 +9955,7 @@
         <v>1172341.41726244</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10392,7 +9988,7 @@
         <v>1148669.94416244</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10425,7 +10021,7 @@
         <v>1161761.98076244</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10458,7 +10054,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10491,7 +10087,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10524,7 +10120,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10557,7 +10153,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10590,7 +10186,7 @@
         <v>1176109.04176244</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10623,7 +10219,7 @@
         <v>1196099.04176244</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10656,7 +10252,7 @@
         <v>1190352.13426244</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10689,7 +10285,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10722,7 +10318,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10755,7 +10351,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10788,7 +10384,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10821,7 +10417,7 @@
         <v>1175915.89196244</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10854,7 +10450,7 @@
         <v>1151008.99666244</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10887,7 +10483,7 @@
         <v>1163018.99666244</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10920,7 +10516,7 @@
         <v>1156375.51916244</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10953,7 +10549,7 @@
         <v>1154544.51916244</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10986,7 +10582,7 @@
         <v>1154807.86426244</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11019,7 +10615,7 @@
         <v>1136777.483142927</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11052,7 +10648,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11085,7 +10681,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11118,7 +10714,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11349,7 +10945,7 @@
         <v>1058829.057742927</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11382,7 +10978,7 @@
         <v>1065442.075842927</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11415,7 +11011,7 @@
         <v>1066262.998942927</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11448,7 +11044,7 @@
         <v>1016186.459942927</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11481,7 +11077,7 @@
         <v>1013578.392242927</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11514,7 +11110,7 @@
         <v>1013578.392242927</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11547,7 +11143,7 @@
         <v>1019293.154147689</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11580,7 +11176,7 @@
         <v>960072.8649581054</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11613,7 +11209,7 @@
         <v>950195.4433581054</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11646,7 +11242,7 @@
         <v>907161.1742581053</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11679,7 +11275,7 @@
         <v>900156.1742581053</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11712,7 +11308,7 @@
         <v>886799.6066581054</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11745,7 +11341,7 @@
         <v>864969.3349581053</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11778,7 +11374,7 @@
         <v>891660.4987581053</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11811,7 +11407,7 @@
         <v>891660.4987581053</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11844,7 +11440,7 @@
         <v>894925.0367581053</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11877,7 +11473,7 @@
         <v>900045.0367581053</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11976,7 +11572,7 @@
         <v>895681.6580816347</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12009,7 +11605,7 @@
         <v>872416.9263816347</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12042,7 +11638,7 @@
         <v>869229.0018816347</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12075,7 +11671,7 @@
         <v>870567.0018816347</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12108,7 +11704,7 @@
         <v>847203.7526816347</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12141,7 +11737,7 @@
         <v>847203.7526816347</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12174,7 +11770,7 @@
         <v>835742.3048816348</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12207,7 +11803,7 @@
         <v>835742.3048816348</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12240,7 +11836,7 @@
         <v>805523.2267816347</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12273,7 +11869,7 @@
         <v>805523.2267816347</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12306,7 +11902,7 @@
         <v>805553.2267816347</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12339,7 +11935,7 @@
         <v>750987.6214816347</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14979,14 +14575,10 @@
         <v>398596.7915699288</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="J430" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
@@ -15016,19 +14608,11 @@
         <v>398596.7915699288</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="J431" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15057,19 +14641,11 @@
         <v>396861.2831699288</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="J432" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15098,19 +14674,11 @@
         <v>387373.1905699288</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>98.20999999999999</v>
-      </c>
-      <c r="J433" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15142,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15181,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15220,14 +14776,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15259,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15295,19 +14839,11 @@
         <v>341277.6595699288</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>97.72</v>
-      </c>
-      <c r="J438" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15336,19 +14872,11 @@
         <v>344787.6595699288</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J439" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15377,19 +14905,11 @@
         <v>344787.6595699288</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>98.59</v>
-      </c>
-      <c r="J440" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15421,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15460,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15499,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15538,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15577,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15616,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15655,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15694,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15733,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15772,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15811,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15850,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15889,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15928,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15967,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16006,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16045,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16084,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16123,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16162,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16201,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16240,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16279,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16318,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16357,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16396,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16435,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16474,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16513,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16552,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16591,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16630,14 +15964,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16669,14 +15997,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16708,14 +16030,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16747,14 +16063,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16786,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16825,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16864,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16903,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16942,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16981,14 +16261,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17020,14 +16294,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17059,14 +16327,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17098,14 +16360,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17137,14 +16393,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17176,14 +16426,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17212,19 +16456,11 @@
         <v>292674.9172763805</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J487" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17253,19 +16489,11 @@
         <v>299814.5324763805</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J488" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17297,14 +16525,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17333,19 +16555,11 @@
         <v>321874.8667763805</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>97.89</v>
-      </c>
-      <c r="J490" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17374,19 +16588,11 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J491" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17415,19 +16621,11 @@
         <v>305722.8713763804</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J492" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17459,14 +16657,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17495,19 +16687,11 @@
         <v>272815.2566763805</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J494" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17539,14 +16723,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17575,19 +16753,11 @@
         <v>255109.6015763804</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J496" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17619,14 +16789,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17658,14 +16822,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17697,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17733,17 +16885,15 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>96.31</v>
+      </c>
       <c r="J500" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>96.31</v>
+      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +16926,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>98.34</v>
+        <v>96.31</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L501" t="n">
@@ -17815,11 +16965,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>98.34</v>
+        <v>96.31</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L502" t="n">
@@ -17853,14 +17003,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17889,19 +17033,11 @@
         <v>90994.71927638043</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>97.14</v>
-      </c>
-      <c r="J504" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17930,19 +17066,11 @@
         <v>86260.17157638044</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>97.17</v>
-      </c>
-      <c r="J505" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17971,19 +17099,11 @@
         <v>90533.10087638044</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>96.51000000000001</v>
-      </c>
-      <c r="J506" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18012,19 +17132,11 @@
         <v>116842.2061763804</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>96.61</v>
-      </c>
-      <c r="J507" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18053,19 +17165,11 @@
         <v>93299.54307638043</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="J508" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18094,19 +17198,11 @@
         <v>129235.3704763804</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="J509" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18135,19 +17231,11 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="J510" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18176,19 +17264,11 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="J511" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18217,19 +17297,11 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="J512" t="n">
-        <v>98.34</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18263,12 +17335,10 @@
       <c r="I513" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J513" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L513" t="n">
@@ -18304,9 +17374,7 @@
       <c r="I514" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J514" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,9 +17413,7 @@
       <c r="I515" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="J515" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18386,9 +17452,7 @@
       <c r="I516" t="n">
         <v>95.88</v>
       </c>
-      <c r="J516" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18427,9 +17491,7 @@
       <c r="I517" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="J517" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18468,9 +17530,7 @@
       <c r="I518" t="n">
         <v>95.31</v>
       </c>
-      <c r="J518" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18509,9 +17569,7 @@
       <c r="I519" t="n">
         <v>95.31</v>
       </c>
-      <c r="J519" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18550,9 +17608,7 @@
       <c r="I520" t="n">
         <v>95.8</v>
       </c>
-      <c r="J520" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18591,9 +17647,7 @@
       <c r="I521" t="n">
         <v>95.8</v>
       </c>
-      <c r="J521" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18632,9 +17686,7 @@
       <c r="I522" t="n">
         <v>95.8</v>
       </c>
-      <c r="J522" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18673,9 +17725,7 @@
       <c r="I523" t="n">
         <v>95.8</v>
       </c>
-      <c r="J523" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,9 +17764,7 @@
       <c r="I524" t="n">
         <v>96.5</v>
       </c>
-      <c r="J524" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18755,9 +17803,7 @@
       <c r="I525" t="n">
         <v>96.22</v>
       </c>
-      <c r="J525" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18796,9 +17842,7 @@
       <c r="I526" t="n">
         <v>96.89</v>
       </c>
-      <c r="J526" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,9 +17881,7 @@
       <c r="I527" t="n">
         <v>96.63</v>
       </c>
-      <c r="J527" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18878,9 +17920,7 @@
       <c r="I528" t="n">
         <v>96.63</v>
       </c>
-      <c r="J528" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18917,9 +17957,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18956,9 +17994,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18995,9 +18031,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19031,14 +18065,10 @@
         <v>99520.60507638045</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>96.51000000000001</v>
-      </c>
-      <c r="J532" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19072,14 +18102,10 @@
         <v>99525.80507638045</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="J533" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19113,14 +18139,10 @@
         <v>117967.2762763804</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>97.06999999999999</v>
-      </c>
-      <c r="J534" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19157,9 +18179,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19196,9 +18216,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19235,9 +18253,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19274,9 +18290,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19313,9 +18327,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19352,9 +18364,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19391,9 +18401,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19430,9 +18438,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19469,9 +18475,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19508,9 +18512,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19547,9 +18549,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19586,9 +18586,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19625,9 +18623,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19664,9 +18660,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19703,9 +18697,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19742,9 +18734,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19781,9 +18771,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,9 +18808,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,9 +18845,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19898,9 +18882,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19937,9 +18919,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19976,9 +18956,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20015,9 +18993,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20054,9 +19030,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20093,9 +19067,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20129,14 +19101,10 @@
         <v>289194.4163371525</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J560" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,14 +19138,10 @@
         <v>290215.2026373515</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>99.12</v>
-      </c>
-      <c r="J561" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20211,14 +19175,10 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J562" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20252,14 +19212,10 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="J563" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20293,14 +19249,10 @@
         <v>285272.2378372516</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="J564" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20334,14 +19286,10 @@
         <v>252805.2714372516</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="J565" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20375,14 +19323,10 @@
         <v>345693.4456372516</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J566" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20416,14 +19360,10 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J567" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20457,14 +19397,10 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J568" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20498,14 +19434,10 @@
         <v>404829.8391372516</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J569" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20539,14 +19471,10 @@
         <v>504443.8730372516</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="J570" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20580,14 +19508,10 @@
         <v>484034.8790372516</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>101</v>
-      </c>
-      <c r="J571" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20621,14 +19545,10 @@
         <v>494995.7471372516</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J572" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20662,14 +19582,10 @@
         <v>469873.5745372516</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>101</v>
-      </c>
-      <c r="J573" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20703,14 +19619,10 @@
         <v>475529.1926372516</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J574" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20744,14 +19656,10 @@
         <v>478573.1238372516</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>101</v>
-      </c>
-      <c r="J575" t="n">
-        <v>98.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20788,9 +19696,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20827,9 +19733,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20866,9 +19770,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20905,9 +19807,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20944,9 +19844,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20983,9 +19881,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21022,9 +19918,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21061,9 +19955,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21100,9 +19992,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21139,9 +20029,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21178,9 +20066,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21217,9 +20103,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21256,9 +20140,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21295,9 +20177,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21334,9 +20214,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21373,9 +20251,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21412,9 +20288,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,9 +20325,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21490,9 +20362,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21529,9 +20399,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21568,9 +20436,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21607,9 +20473,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21646,9 +20510,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21685,9 +20547,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21724,9 +20584,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21763,9 +20621,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21802,9 +20658,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21841,9 +20695,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21880,9 +20732,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21919,9 +20769,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21958,9 +20806,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21997,9 +20843,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22036,9 +20880,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22075,9 +20917,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22114,9 +20954,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22153,9 +20991,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22192,9 +21028,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22231,9 +21065,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22270,9 +21102,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22309,9 +21139,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22348,9 +21176,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22387,9 +21213,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22426,9 +21250,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22465,9 +21287,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22504,9 +21324,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22543,9 +21361,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22582,9 +21398,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22621,9 +21435,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22660,9 +21472,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22699,9 +21509,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22738,9 +21546,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22777,9 +21583,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22816,9 +21620,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22855,9 +21657,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22894,9 +21694,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22933,9 +21731,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22972,9 +21768,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23011,9 +21805,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23050,9 +21842,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23089,9 +21879,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23128,9 +21916,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23167,9 +21953,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23206,9 +21990,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23245,9 +22027,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23284,9 +22064,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23323,9 +22101,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23362,9 +22138,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23401,9 +22175,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,9 +22212,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23479,9 +22249,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23518,9 +22286,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23557,9 +22323,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23596,9 +22360,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23635,9 +22397,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23674,9 +22434,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23713,9 +22471,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23752,9 +22508,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23791,9 +22545,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23830,9 +22582,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23869,9 +22619,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23908,9 +22656,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23947,9 +22693,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23986,9 +22730,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24025,9 +22767,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24064,9 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24103,9 +22841,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24142,9 +22878,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24181,9 +22915,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24220,9 +22952,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24259,9 +22989,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24298,9 +23026,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24337,9 +23063,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24376,9 +23100,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24415,9 +23137,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24454,9 +23174,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24493,9 +23211,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24532,9 +23248,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24571,9 +23285,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24610,9 +23322,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24649,9 +23359,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24688,9 +23396,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24727,9 +23433,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24766,9 +23470,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24805,9 +23507,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24844,9 +23544,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24883,9 +23581,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24922,9 +23618,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24961,9 +23655,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25000,9 +23692,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25039,9 +23729,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25078,9 +23766,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25117,9 +23803,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25156,9 +23840,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25195,9 +23877,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25234,9 +23914,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25273,9 +23951,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25312,9 +23988,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25351,9 +24025,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25390,9 +24062,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25429,9 +24099,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25468,9 +24136,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25507,9 +24173,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25546,9 +24210,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25585,9 +24247,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25624,9 +24284,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25663,9 +24321,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25702,9 +24358,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25741,9 +24395,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25780,9 +24432,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25819,9 +24469,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25858,9 +24506,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25897,9 +24543,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25936,9 +24580,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25972,23 +24614,19 @@
         <v>399397.2212587089</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>98.34</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L709" t="n">
-        <v>1.055606060606061</v>
-      </c>
-      <c r="M709" t="n">
-        <v>1.150862068965517</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -26013,11 +24651,15 @@
         <v>423204.5465587089</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26050,7 +24692,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26079,11 +24725,15 @@
         <v>382064.4081587089</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26116,7 +24766,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26145,11 +24799,15 @@
         <v>372017.816358709</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26182,7 +24840,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26211,11 +24873,15 @@
         <v>370297.4192103868</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26248,7 +24914,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26281,7 +24951,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26310,11 +24984,15 @@
         <v>321169.8579103868</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26343,11 +25021,15 @@
         <v>321728.5320103868</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26376,11 +25058,15 @@
         <v>308967.2494103868</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26409,11 +25095,15 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26442,11 +25132,15 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26475,11 +25169,15 @@
         <v>285434.0327103868</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26508,11 +25206,15 @@
         <v>290031.3919103869</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26541,11 +25243,15 @@
         <v>319846.4455103868</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26574,11 +25280,15 @@
         <v>319407.2996103868</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26611,7 +25321,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26644,7 +25358,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26673,11 +25391,15 @@
         <v>325081.4479103868</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26706,11 +25428,15 @@
         <v>324531.4479103868</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26739,11 +25465,15 @@
         <v>265922.0683103869</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26772,11 +25502,15 @@
         <v>265922.0683103869</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26805,11 +25539,15 @@
         <v>301244.1011103868</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +25576,15 @@
         <v>291243.8619103868</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26871,11 +25613,15 @@
         <v>301809.1453103868</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26904,11 +25650,15 @@
         <v>297811.0621103868</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26937,11 +25687,15 @@
         <v>313440.0015103868</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26970,11 +25724,15 @@
         <v>306971.4818103868</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27003,11 +25761,15 @@
         <v>292011.2076103868</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27036,11 +25798,15 @@
         <v>293111.2076103868</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27069,11 +25835,15 @@
         <v>287559.7910103868</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27102,11 +25872,15 @@
         <v>283561.7078103868</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27135,11 +25909,15 @@
         <v>283561.7078103868</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27168,11 +25946,15 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27201,11 +25983,15 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27234,11 +26020,15 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27267,11 +26057,15 @@
         <v>230310.5811103868</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27304,7 +26098,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27337,7 +26135,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27370,7 +26172,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27403,7 +26209,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27436,7 +26246,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27469,7 +26283,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27502,7 +26320,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27535,7 +26357,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27568,7 +26394,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27601,7 +26431,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27634,7 +26468,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27667,7 +26505,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27700,7 +26542,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27733,7 +26579,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27766,7 +26616,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27799,7 +26653,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27832,7 +26690,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27865,7 +26727,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27898,7 +26764,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27931,7 +26801,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27964,7 +26838,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27997,7 +26875,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28030,7 +26912,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28063,7 +26949,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28096,7 +26986,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28129,7 +27023,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28162,7 +27060,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28195,7 +27097,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28228,7 +27134,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28261,7 +27171,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28294,7 +27208,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28327,7 +27245,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28360,7 +27282,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28393,7 +27319,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28426,7 +27356,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28459,7 +27393,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28492,7 +27430,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28525,7 +27467,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28558,7 +27504,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28591,7 +27541,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28624,7 +27578,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28657,7 +27615,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28690,7 +27652,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28723,7 +27689,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28756,7 +27726,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28789,7 +27763,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28822,7 +27800,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28855,7 +27837,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28888,7 +27874,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28921,7 +27911,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28954,7 +27948,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28987,7 +27985,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29020,7 +28022,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29053,7 +28059,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29086,7 +28096,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29119,7 +28133,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29152,7 +28170,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29185,7 +28207,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29218,7 +28244,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29251,7 +28281,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29284,7 +28318,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29317,7 +28355,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29350,7 +28392,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29383,7 +28429,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29416,7 +28466,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29449,7 +28503,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29482,7 +28540,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29515,7 +28577,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29548,7 +28614,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29581,7 +28651,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29614,7 +28688,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29647,7 +28725,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29680,7 +28762,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29713,7 +28799,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29746,7 +28836,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29779,7 +28873,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29812,7 +28910,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29845,7 +28947,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29878,7 +28984,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29911,7 +29021,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29944,7 +29058,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29977,7 +29095,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30010,7 +29132,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30043,7 +29169,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30076,7 +29206,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30109,7 +29243,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30142,7 +29280,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30175,7 +29317,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30208,7 +29354,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30241,7 +29391,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30274,7 +29428,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30307,7 +29465,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30340,7 +29502,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30373,7 +29539,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30406,7 +29576,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30439,7 +29613,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30472,7 +29650,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30505,7 +29687,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30538,7 +29724,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30571,7 +29761,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30604,7 +29798,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30637,7 +29835,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30670,7 +29872,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30703,7 +29909,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30736,7 +29946,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30769,7 +29983,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30802,7 +30020,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30835,7 +30057,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30868,7 +30094,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30901,7 +30131,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30934,7 +30168,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30967,7 +30205,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31000,7 +30242,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31033,7 +30279,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31066,7 +30316,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31099,7 +30353,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31132,7 +30390,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31165,7 +30427,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31198,7 +30464,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31231,7 +30501,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31264,7 +30538,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31297,7 +30575,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31330,7 +30612,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31363,7 +30649,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31396,7 +30686,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31429,7 +30723,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31462,7 +30760,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31495,7 +30797,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31528,7 +30834,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31561,7 +30871,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31594,7 +30908,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31627,7 +30945,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31660,7 +30982,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31693,7 +31019,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31726,7 +31056,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31759,7 +31093,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31788,15 +31126,15 @@
         <v>-217.6754760634667</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J885" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K885" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31825,17 +31163,13 @@
         <v>-3717.675476063467</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J886" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L886" t="n">
@@ -31869,9 +31203,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31905,14 +31237,10 @@
         <v>-4717.675476063467</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J888" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31946,14 +31274,10 @@
         <v>-23973.68667606347</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J889" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31990,9 +31314,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32029,9 +31351,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32068,9 +31388,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32107,9 +31425,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32143,14 +31459,10 @@
         <v>2313.539480629446</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J894" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32184,14 +31496,10 @@
         <v>-2687.460519370554</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="J895" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32225,14 +31533,10 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J896" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32266,14 +31570,10 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>100</v>
-      </c>
-      <c r="J897" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32307,14 +31607,10 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>100</v>
-      </c>
-      <c r="J898" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32348,14 +31644,10 @@
         <v>-91798.27911937055</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>100</v>
-      </c>
-      <c r="J899" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32389,14 +31681,10 @@
         <v>-181176.6911193705</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J900" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32430,14 +31718,10 @@
         <v>-142825.3118193705</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>99.98</v>
-      </c>
-      <c r="J901" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32471,14 +31755,10 @@
         <v>-171052.3809193705</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>100</v>
-      </c>
-      <c r="J902" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32512,14 +31792,10 @@
         <v>-159322.3809193705</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>99.42</v>
-      </c>
-      <c r="J903" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32553,14 +31829,10 @@
         <v>-165098.1802193706</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>100</v>
-      </c>
-      <c r="J904" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32594,14 +31866,10 @@
         <v>-164218.5789193705</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>99.23</v>
-      </c>
-      <c r="J905" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32635,14 +31903,10 @@
         <v>-150398.5789193705</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="J906" t="n">
-        <v>100.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32654,6 +31918,6 @@
       <c r="M906" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-25 BackTest ENJ.xlsx
@@ -2068,7 +2068,7 @@
         <v>1275687.937245423</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1171226.696445423</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1199215.768745423</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1253697.071545423</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1254999.521345423</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1255701.946445423</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1259293.108645423</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1299951.418945423</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1299956.418945423</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1264953.827245423</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1106470.536675959</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1042236.726975959</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1002364.729375959</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1090687.851742345</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1168383.541942345</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1333651.338184583</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1330210.278184583</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1351549.666384583</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1205498.79047168</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1193911.87867168</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1204144.56757168</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1222714.81886244</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1202521.48436244</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1172341.41726244</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1148669.94416244</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>1161761.98076244</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>1185079.04176244</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>1188109.04176244</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1176109.04176244</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1196099.04176244</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1190352.13426244</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1179665.23816244</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1175789.89196244</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1175915.89196244</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1151008.99666244</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1163018.99666244</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1156375.51916244</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1154544.51916244</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1154807.86426244</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1136777.483142927</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1073377.291342927</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -16885,14 +16885,10 @@
         <v>87728.50827638044</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="J500" t="n">
-        <v>96.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
@@ -16925,14 +16921,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16964,14 +16954,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17330,17 +17314,11 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>96.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17369,17 +17347,11 @@
         <v>119312.5249763804</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>96.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17408,17 +17380,11 @@
         <v>98782.30477638044</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>96.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17455,7 +17421,7 @@
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L516" t="n">
@@ -17954,9 +17920,11 @@
         <v>106215.6862763804</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>97.17</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -17991,9 +17959,11 @@
         <v>87164.98007638044</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>97.17</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18028,9 +17998,11 @@
         <v>104643.2366763804</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>96.26000000000001</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18065,9 +18037,11 @@
         <v>99520.60507638045</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>96.51000000000001</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18102,9 +18076,11 @@
         <v>99525.80507638045</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>96.25</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18139,9 +18115,11 @@
         <v>117967.2762763804</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>97.06999999999999</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18176,9 +18154,11 @@
         <v>119695.3200763804</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>97.17</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18213,9 +18193,11 @@
         <v>120062.0568763804</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>97.41</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18250,9 +18232,11 @@
         <v>120104.5142763804</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>97.5</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18287,9 +18271,11 @@
         <v>120204.5142763804</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>97.59</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18324,9 +18310,11 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>97.66</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18361,9 +18349,11 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>97.3</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18398,9 +18388,11 @@
         <v>120018.4564763805</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>97.3</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18435,9 +18427,11 @@
         <v>130779.2281763804</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>97.3</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18472,9 +18466,11 @@
         <v>145279.2281763804</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>98.09999999999999</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18509,9 +18505,11 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>98.2</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18546,9 +18544,11 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>98.29000000000001</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18583,9 +18583,11 @@
         <v>173574.2153763805</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>98.29000000000001</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18620,9 +18622,11 @@
         <v>173803.2821763805</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>98.29000000000001</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18657,9 +18661,11 @@
         <v>193435.3871763805</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>98.52</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18694,9 +18700,11 @@
         <v>232005.6466763805</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>98.98999999999999</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18731,9 +18739,11 @@
         <v>215103.5417763805</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>99.37</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18768,9 +18778,11 @@
         <v>215103.5417763805</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>98.98999999999999</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18805,9 +18817,11 @@
         <v>245173.1664763805</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>98.98999999999999</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18842,9 +18856,11 @@
         <v>245182.8220763805</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18879,9 +18895,11 @@
         <v>236967.9818763805</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>99.51000000000001</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -18916,9 +18934,11 @@
         <v>237224.9395763805</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>98.98999999999999</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -18953,9 +18973,11 @@
         <v>307713.0283401317</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>99.61</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -18990,9 +19012,11 @@
         <v>300537.6037401317</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>100.7</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19027,9 +19051,11 @@
         <v>314677.7773401316</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19064,9 +19090,11 @@
         <v>329543.2091401317</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19101,9 +19129,11 @@
         <v>289194.4163371525</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>100.2</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19138,9 +19168,11 @@
         <v>290215.2026373515</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>99.12</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19175,9 +19207,11 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>100.5</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19212,9 +19246,11 @@
         <v>271374.8783372516</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>99.84999999999999</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19249,9 +19285,11 @@
         <v>285272.2378372516</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>99.84999999999999</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19286,9 +19324,11 @@
         <v>252805.2714372516</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>100.7</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19323,9 +19363,11 @@
         <v>345693.4456372516</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>99.7</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19360,9 +19402,11 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>100.4</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19397,9 +19441,11 @@
         <v>380888.6456372516</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>100.6</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19434,9 +19480,11 @@
         <v>404829.8391372516</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>100.6</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -24170,18 +24218,16 @@
         <v>808327.6128587088</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="inlineStr"/>
     </row>
     <row r="698">
@@ -24207,15 +24253,11 @@
         <v>851185.3923587088</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24244,15 +24286,11 @@
         <v>589852.7535587088</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24281,15 +24319,11 @@
         <v>515833.2713587089</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24318,15 +24352,11 @@
         <v>557993.0532587089</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24355,15 +24385,11 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24392,15 +24418,11 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24429,15 +24451,11 @@
         <v>505275.8760587089</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24466,15 +24484,11 @@
         <v>495958.2323587089</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24507,11 +24521,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24544,11 +24554,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24581,11 +24587,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24618,11 +24620,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24655,11 +24653,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24692,11 +24686,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24729,11 +24719,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24766,11 +24752,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24803,11 +24785,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24840,11 +24818,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24877,11 +24851,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24914,11 +24884,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24951,11 +24917,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24988,11 +24950,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25025,11 +24983,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25062,11 +25016,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25099,11 +25049,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25136,11 +25082,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25173,11 +25115,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25210,11 +25148,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25247,11 +25181,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25284,11 +25214,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25321,11 +25247,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25358,11 +25280,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25395,11 +25313,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25346,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25469,11 +25379,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25506,11 +25412,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25543,11 +25445,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25580,11 +25478,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25617,11 +25511,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25654,11 +25544,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25691,11 +25577,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25728,11 +25610,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25765,11 +25643,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25802,11 +25676,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25839,11 +25709,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25876,11 +25742,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25913,11 +25775,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25950,11 +25808,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25987,11 +25841,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26024,11 +25874,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26061,11 +25907,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26098,11 +25940,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26135,11 +25973,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26172,11 +26006,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26209,11 +26039,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26246,11 +26072,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26283,11 +26105,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26320,11 +26138,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26357,11 +26171,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26394,11 +26204,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26431,11 +26237,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26468,11 +26270,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26505,11 +26303,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26542,11 +26336,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26579,11 +26369,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +26402,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26435,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26690,11 +26468,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26727,11 +26501,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26764,11 +26534,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +26567,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +26600,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26633,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26666,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26949,11 +26699,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26732,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27023,11 +26765,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27060,11 +26798,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27097,11 +26831,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27134,11 +26864,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27171,11 +26897,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27208,11 +26930,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27245,11 +26963,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27282,11 +26996,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27319,11 +27029,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27356,11 +27062,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27393,11 +27095,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27430,11 +27128,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +27161,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27504,11 +27194,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27227,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27578,11 +27260,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27615,11 +27293,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27652,11 +27326,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27359,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27726,11 +27392,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27763,11 +27425,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27800,11 +27458,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27837,11 +27491,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27524,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27911,11 +27557,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27948,11 +27590,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27985,11 +27623,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28022,11 +27656,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28059,11 +27689,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28096,11 +27722,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28133,11 +27755,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28170,11 +27788,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28207,11 +27821,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28244,11 +27854,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28281,11 +27887,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28318,11 +27920,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28355,11 +27953,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28392,11 +27986,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28429,11 +28019,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28466,11 +28052,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28503,11 +28085,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28540,11 +28118,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28577,11 +28151,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28614,11 +28184,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28651,11 +28217,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28688,11 +28250,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28725,11 +28283,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28762,11 +28316,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28799,11 +28349,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28836,11 +28382,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28873,11 +28415,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28910,11 +28448,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28947,11 +28481,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28984,11 +28514,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29021,11 +28547,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29058,11 +28580,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +28613,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29132,11 +28646,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29169,11 +28679,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29206,11 +28712,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29243,11 +28745,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +28778,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29317,11 +28811,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29354,11 +28844,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29391,11 +28877,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29428,11 +28910,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +28943,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +28976,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29539,11 +29009,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29576,11 +29042,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29613,11 +29075,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29650,11 +29108,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29687,11 +29141,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29724,11 +29174,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29761,11 +29207,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29798,11 +29240,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29835,11 +29273,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29872,11 +29306,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29909,11 +29339,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29946,11 +29372,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29983,11 +29405,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30020,11 +29438,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30057,11 +29471,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30094,11 +29504,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30131,11 +29537,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30168,11 +29570,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30205,11 +29603,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30242,11 +29636,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30279,11 +29669,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +29702,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30353,11 +29735,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30390,11 +29768,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30427,11 +29801,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30464,11 +29834,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30501,11 +29867,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30538,11 +29900,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30575,11 +29933,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30612,11 +29966,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30649,11 +29999,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30686,11 +30032,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30723,11 +30065,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30760,11 +30098,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30797,11 +30131,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30834,11 +30164,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30871,11 +30197,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30908,11 +30230,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30945,11 +30263,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30982,11 +30296,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31019,11 +30329,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31056,11 +30362,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31093,11 +30395,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31130,11 +30428,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31167,11 +30461,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31204,11 +30494,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31241,11 +30527,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31278,11 +30560,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31315,11 +30593,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31352,11 +30626,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31389,11 +30659,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31422,13 +30688,15 @@
         <v>-8945.610419370554</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>100.7</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L893" t="n">
@@ -31607,9 +30875,11 @@
         <v>-92896.68611937056</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>100</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31644,9 +30914,11 @@
         <v>-91798.27911937055</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>100</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31755,9 +31027,11 @@
         <v>-171052.3809193705</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>100</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31792,9 +31066,11 @@
         <v>-159322.3809193705</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>99.42</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31829,9 +31105,11 @@
         <v>-165098.1802193706</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>100</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31866,9 +31144,11 @@
         <v>-164218.5789193705</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>99.23</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31903,9 +31183,11 @@
         <v>-150398.5789193705</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>99.5</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
